--- a/Files/Sample_Cred_Template.xlsx
+++ b/Files/Sample_Cred_Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\AR Automation\Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{477C2C87-D682-4A25-803D-AA3B404A95AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F55F47C-9E84-47EA-A602-BBAC05B3E163}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{20F0A20D-D80D-4B87-B3DE-0EBBCB6F45FC}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>username</t>
   </si>
@@ -53,25 +53,10 @@
     <t>region</t>
   </si>
   <si>
-    <t>Trianz@1234</t>
-  </si>
-  <si>
-    <t>https://cm-us-est-prod-01.cmigrate.com/login?realm=Truist</t>
-  </si>
-  <si>
-    <t>us-east-1</t>
-  </si>
-  <si>
     <t>businessfunctions</t>
   </si>
   <si>
-    <t>user1</t>
-  </si>
-  <si>
-    <t>ASSMNT_TRUI_SAMPLE_REPORT</t>
-  </si>
-  <si>
-    <t>APP_01,APP_02,APP_03</t>
+    <t>buisness functions should be seperated by comas (Eg: APP_01,APP_02)</t>
   </si>
 </sst>
 </file>
@@ -456,7 +441,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37277DFC-2F06-4E27-ACEA-496A98797BB8}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
@@ -466,7 +451,7 @@
     <col min="2" max="2" width="11.26953125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="50.26953125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="52.08984375" customWidth="1"/>
-    <col min="5" max="5" width="59.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="62.36328125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -484,36 +469,19 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="B2" s="1"/>
+      <c r="E2" t="s">
         <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{67E77B7F-82A7-4AAF-BDC3-928924B5616B}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>